--- a/pivot table.xlsx
+++ b/pivot table.xlsx
@@ -8,18 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-202505B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27CA52C4-9FB4-4FF6-859D-E2C9B3797AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1C139-86A2-41B1-BBC4-332849232FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{65544F06-FC3A-4FE9-8B30-3421C0F53250}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{65544F06-FC3A-4FE9-8B30-3421C0F53250}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot table" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Scenario Summary 2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Scenario Summary" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="a">Sheet3!$I$6</definedName>
+    <definedName name="board">Sheet3!$J$10</definedName>
+    <definedName name="graphic">Sheet3!$J$8</definedName>
+    <definedName name="LCD">Sheet3!$I$6</definedName>
+    <definedName name="least">Sheet3!$J$6</definedName>
+    <definedName name="mouse">Sheet3!$J$9</definedName>
+    <definedName name="SSD">Sheet3!$J$7</definedName>
+    <definedName name="total">Sheet3!$J$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -142,13 +155,115 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>SUBJECTS</t>
+  </si>
+  <si>
+    <t>MARKS</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Graphic card</t>
+  </si>
+  <si>
+    <t>Mother board</t>
+  </si>
+  <si>
+    <t>$J$6</t>
+  </si>
+  <si>
+    <t>$J$7</t>
+  </si>
+  <si>
+    <t>$J$8</t>
+  </si>
+  <si>
+    <t>$J$9</t>
+  </si>
+  <si>
+    <t>$J$10</t>
+  </si>
+  <si>
+    <t>$J$11</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>Created by admin on 6/18/2025</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>graphic</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,16 +271,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,11 +358,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -186,6 +424,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +756,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F43ED051-1E43-47D6-9350-8BC5FD4E411C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F43ED051-1E43-47D6-9350-8BC5FD4E411C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K8:M17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -568,7 +837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04EE0FC6-693D-4ECC-AEA7-FB1812BB0AB8}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{04EE0FC6-693D-4ECC-AEA7-FB1812BB0AB8}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1323,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E312462-B9AE-4951-90A9-DF0329D24C62}">
   <dimension ref="E8:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,4 +2033,506 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EADF3EB-28E1-496A-863E-F3AF05E86496}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="8">
+        <v>12000</v>
+      </c>
+      <c r="E6" s="18">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="18">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="8">
+        <v>77000</v>
+      </c>
+      <c r="E8" s="18">
+        <v>77000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8">
+        <v>49000</v>
+      </c>
+      <c r="E10" s="18">
+        <v>49000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9">
+        <v>150500</v>
+      </c>
+      <c r="E12" s="9">
+        <v>150500</v>
+      </c>
+      <c r="F12" s="9">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79042D-5D7A-489F-B531-3AFFA7AB6074}">
+  <dimension ref="F5:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="5">
+        <v>64</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5">
+        <v>89</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5">
+        <v>78</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5">
+        <v>73.999999999999972</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="5">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5">
+        <f>SUM(G6:G10)</f>
+        <v>350</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5">
+        <f>SUM(J6:J10)</f>
+        <v>150500</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <scenarios current="0" show="0" sqref="J11">
+    <scenario name="maximum" locked="1" count="5" user="admin" comment="Created by admin on 6/18/2025">
+      <inputCells r="J6" val="12000"/>
+      <inputCells r="J7" val="10000"/>
+      <inputCells r="J8" val="77000"/>
+      <inputCells r="J9" val="2500"/>
+      <inputCells r="J10" val="49000"/>
+    </scenario>
+    <scenario name="minimum" locked="1" count="5" user="admin" comment="Created by admin on 6/18/2025">
+      <inputCells r="J6" val="8000"/>
+      <inputCells r="J7" val="6000"/>
+      <inputCells r="J8" val="70000"/>
+      <inputCells r="J9" val="1000"/>
+      <inputCells r="J10" val="40000"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5A6B1-1775-49EC-B787-10AAA228A5BF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="22.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8">
+        <v>12000</v>
+      </c>
+      <c r="E6" s="18">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="18">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8">
+        <v>77000</v>
+      </c>
+      <c r="E8" s="18">
+        <v>77000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8">
+        <v>49000</v>
+      </c>
+      <c r="E10" s="18">
+        <v>49000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9">
+        <v>150500</v>
+      </c>
+      <c r="E12" s="9">
+        <v>150500</v>
+      </c>
+      <c r="F12" s="9">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>